--- a/biology/Zoologie/Grive_à_joues_grises/Grive_à_joues_grises.xlsx
+++ b/biology/Zoologie/Grive_à_joues_grises/Grive_à_joues_grises.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_joues_grises</t>
+          <t>Grive_à_joues_grises</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catharus minimus
 La Grivette à joues grises (Catharus minimus) est une espèce de passereau de la famille des Turdidae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_joues_grises</t>
+          <t>Grive_à_joues_grises</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La grive à joues grises mesure 18 cm de longueur pour une envergure de 28 à 32 cm et une masse de 25 à 30 g.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_joues_grises</t>
+          <t>Grive_à_joues_grises</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des sous-espèces suivantes :
 Catharus minimus aliciae  (Baird,SF) 1858 : de la Sibérie au Québec
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_joues_grises</t>
+          <t>Grive_à_joues_grises</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
